--- a/fourth_pass/welfare_results/3282/analysis_results/cor_and_elas_3282.xlsx
+++ b/fourth_pass/welfare_results/3282/analysis_results/cor_and_elas_3282.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">WR_cor_pop</t>
+    <t xml:space="preserve">cor_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_pop</t>
   </si>
   <si>
     <t xml:space="preserve">WR_cor_u</t>
@@ -29,9 +32,6 @@
     <t xml:space="preserve">WR_cor_hu_apop</t>
   </si>
   <si>
-    <t xml:space="preserve">WR_e_pop</t>
-  </si>
-  <si>
     <t xml:space="preserve">WR_e_u</t>
   </si>
   <si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">WR_e_hu_apop</t>
   </si>
   <si>
-    <t xml:space="preserve">NC_cor_pop</t>
-  </si>
-  <si>
     <t xml:space="preserve">NC_cor_u</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">NC_cor_hu_apop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_e_pop</t>
   </si>
   <si>
     <t xml:space="preserve">NC_e_u</t>
@@ -509,31 +503,25 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.978445703173817</v>
       </c>
       <c r="C2" t="n">
+        <v>72.8753918662978</v>
+      </c>
+      <c r="D2" t="n">
         <v>-0.994077062095491</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.978445703173817</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.994077062095491</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72.8753918662978</v>
       </c>
       <c r="G2" t="n">
         <v>-4.17890087437411</v>
@@ -545,48 +533,42 @@
         <v>0.978979491501192</v>
       </c>
       <c r="J2" t="n">
-        <v>0.978445703173817</v>
+        <v>-0.994077062095491</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.994077062095491</v>
+        <v>-0.978445703173817</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.978445703173817</v>
+        <v>0.994077062095491</v>
       </c>
       <c r="M2" t="n">
-        <v>0.994077062095491</v>
+        <v>-0.0769139893230997</v>
       </c>
       <c r="N2" t="n">
-        <v>72.8753918662978</v>
+        <v>-5.72548981932817</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0769139893230997</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-5.72548981932817</v>
-      </c>
-      <c r="Q2" t="n">
         <v>0.978979491501192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.858108647676435</v>
       </c>
       <c r="C3" t="n">
+        <v>0.00254435523045804</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.89608392222896</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.858108647676435</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.89608392222896</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00254435523045804</v>
       </c>
       <c r="G3" t="n">
         <v>0.000645942293036667</v>
@@ -598,48 +580,42 @@
         <v>0.0000481184664061879</v>
       </c>
       <c r="J3" t="n">
+        <v>0.89608392222896</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.858108647676435</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.89608392222896</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.858108647676435</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.89608392222896</v>
+        <v>0.00000752340842832905</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00254435523045804</v>
+        <v>0.000397814498573243</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00000752340842832905</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.000397814498573243</v>
-      </c>
-      <c r="Q3" t="n">
         <v>0.0000481184664061879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.96140458865591</v>
       </c>
       <c r="C4" t="n">
+        <v>165.930306433566</v>
+      </c>
+      <c r="D4" t="n">
         <v>-0.980265790894893</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.961404588655909</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.980265790894893</v>
-      </c>
-      <c r="F4" t="n">
-        <v>165.930306433566</v>
       </c>
       <c r="G4" t="n">
         <v>-9.13689504632759</v>
@@ -651,48 +627,42 @@
         <v>3.06401577676982</v>
       </c>
       <c r="J4" t="n">
-        <v>0.96140458865591</v>
+        <v>-0.980265790894893</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.980265790894893</v>
+        <v>-0.961404588655909</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.961404588655909</v>
+        <v>0.980265790894893</v>
       </c>
       <c r="M4" t="n">
-        <v>0.980265790894893</v>
+        <v>-0.000890760286894809</v>
       </c>
       <c r="N4" t="n">
-        <v>165.930306433566</v>
+        <v>-0.048238696577185</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.000890760286894809</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.048238696577185</v>
-      </c>
-      <c r="Q4" t="n">
         <v>3.06401577676982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.996754735111256</v>
       </c>
       <c r="C5" t="n">
+        <v>0.0248261849493195</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.950875059692682</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.996754735111256</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.950875059692682</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0248261849493195</v>
       </c>
       <c r="G5" t="n">
         <v>-0.00611763614733641</v>
@@ -704,48 +674,42 @@
         <v>0.00042891650756057</v>
       </c>
       <c r="J5" t="n">
-        <v>0.996754735111256</v>
+        <v>-0.950875059692682</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.950875059692682</v>
+        <v>-0.996754735111256</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.996754735111256</v>
+        <v>0.950875059692682</v>
       </c>
       <c r="M5" t="n">
-        <v>0.950875059692682</v>
+        <v>-0.000471769620832055</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0248261849493195</v>
+        <v>-0.0273065728499456</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.000471769620832055</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.0273065728499456</v>
-      </c>
-      <c r="Q5" t="n">
         <v>0.00042891650756057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.931693181546322</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0047001261183794</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.98968421653673</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.931693181546321</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.98968421653673</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0047001261183794</v>
       </c>
       <c r="G6" t="n">
         <v>0.00121378791064139</v>
@@ -757,48 +721,42 @@
         <v>0.0000904192424494479</v>
       </c>
       <c r="J6" t="n">
-        <v>0.931693181546322</v>
+        <v>0.98968421653673</v>
       </c>
       <c r="K6" t="n">
+        <v>0.931693181546321</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.98968421653673</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.931693181546321</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.98968421653673</v>
+        <v>0.000106907942349415</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0047001261183794</v>
+        <v>0.00555723315620139</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000106907942349415</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.00555723315620139</v>
-      </c>
-      <c r="Q6" t="n">
         <v>0.0000904192424494479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.972436504654332</v>
       </c>
       <c r="C7" t="n">
+        <v>0.101424722848992</v>
+      </c>
+      <c r="D7" t="n">
         <v>-0.919767730039377</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.972436504654332</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.919767730039378</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.101424722848992</v>
       </c>
       <c r="G7" t="n">
         <v>-0.0186577942862876</v>
@@ -810,48 +768,42 @@
         <v>0.00173735420574043</v>
       </c>
       <c r="J7" t="n">
-        <v>0.972436504654332</v>
+        <v>-0.919767730039379</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.919767730039379</v>
+        <v>-0.972436504654332</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.972436504654332</v>
+        <v>0.919767730039378</v>
       </c>
       <c r="M7" t="n">
-        <v>0.919767730039378</v>
+        <v>-0.00143062913098105</v>
       </c>
       <c r="N7" t="n">
-        <v>0.101424722848992</v>
+        <v>-0.0835184688476392</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.00143062913098105</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.0835184688476392</v>
-      </c>
-      <c r="Q7" t="n">
         <v>0.00173735420574043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.984612346027066</v>
       </c>
       <c r="C8" t="n">
+        <v>4.59132957024497</v>
+      </c>
+      <c r="D8" t="n">
         <v>-0.990142366382915</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.984612346027066</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.990142366382915</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.59132957024497</v>
       </c>
       <c r="G8" t="n">
         <v>-1.52232170117355</v>
@@ -863,48 +815,42 @@
         <v>0.0836177466798794</v>
       </c>
       <c r="J8" t="n">
-        <v>0.984612346027066</v>
+        <v>-0.990142366382915</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.990142366382915</v>
+        <v>-0.984612346027066</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.984612346027066</v>
+        <v>0.990142366382915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.990142366382915</v>
+        <v>-0.0163015452764901</v>
       </c>
       <c r="N8" t="n">
-        <v>4.59132957024497</v>
+        <v>-0.895094281303397</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0163015452764901</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-0.895094281303397</v>
-      </c>
-      <c r="Q8" t="n">
         <v>0.0836177466798794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.978004616666025</v>
       </c>
       <c r="C9" t="n">
+        <v>0.239485008692609</v>
+      </c>
+      <c r="D9" t="n">
         <v>-0.929828793322838</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.978004616666024</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.929828793322838</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.239485008692609</v>
       </c>
       <c r="G9" t="n">
         <v>-0.0768582783958761</v>
@@ -916,48 +862,42 @@
         <v>0.00412351941605644</v>
       </c>
       <c r="J9" t="n">
-        <v>0.978004616666025</v>
+        <v>-0.929828793322838</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.929828793322838</v>
+        <v>-0.978004616666024</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.978004616666024</v>
+        <v>0.929828793322838</v>
       </c>
       <c r="M9" t="n">
-        <v>0.929828793322838</v>
+        <v>-0.00107428677959351</v>
       </c>
       <c r="N9" t="n">
-        <v>0.239485008692609</v>
+        <v>-0.062392231681391</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.00107428677959351</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-0.062392231681391</v>
-      </c>
-      <c r="Q9" t="n">
         <v>0.00412351941605644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0.968609140697871</v>
       </c>
       <c r="C10" t="n">
+        <v>0.083269198054012</v>
+      </c>
+      <c r="D10" t="n">
         <v>-0.933733738011727</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.968609140697871</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.933733738011727</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.083269198054012</v>
       </c>
       <c r="G10" t="n">
         <v>-0.0270962445989129</v>
@@ -969,48 +909,42 @@
         <v>0.00145373918122823</v>
       </c>
       <c r="J10" t="n">
-        <v>0.968609140697871</v>
+        <v>-0.933733738011727</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.933733738011727</v>
+        <v>-0.968609140697871</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.968609140697871</v>
+        <v>0.933733738011727</v>
       </c>
       <c r="M10" t="n">
-        <v>0.933733738011727</v>
+        <v>-0.000686702913176846</v>
       </c>
       <c r="N10" t="n">
-        <v>0.083269198054012</v>
+        <v>-0.0393338788827849</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.000686702913176846</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-0.0393338788827849</v>
-      </c>
-      <c r="Q10" t="n">
         <v>0.00145373918122823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0.988210637213618</v>
       </c>
       <c r="C11" t="n">
+        <v>0.161020683871765</v>
+      </c>
+      <c r="D11" t="n">
         <v>-0.983574866981753</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.988210637213618</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.983574866981754</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.161020683871765</v>
       </c>
       <c r="G11" t="n">
         <v>-0.0243516925310269</v>
@@ -1022,48 +956,42 @@
         <v>0.00290246633266113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.988210637213618</v>
+        <v>-0.983574866981754</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.983574866981754</v>
+        <v>-0.988210637213618</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.988210637213618</v>
+        <v>0.983574866981754</v>
       </c>
       <c r="M11" t="n">
-        <v>0.983574866981754</v>
+        <v>-0.00119124025379577</v>
       </c>
       <c r="N11" t="n">
-        <v>0.161020683871765</v>
+        <v>-0.0660866650418317</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00119124025379577</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-0.0660866650418317</v>
-      </c>
-      <c r="Q11" t="n">
         <v>0.00290246633266113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>-0.786597091305082</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.00118517820060885</v>
+      </c>
+      <c r="D12" t="n">
         <v>-0.851113096086536</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.786597091305082</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-0.851113096086536</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.00118517820060885</v>
       </c>
       <c r="G12" t="n">
         <v>-0.000311765576313157</v>
@@ -1075,48 +1003,42 @@
         <v>-0.0000232244916800623</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.786597091305082</v>
+        <v>-0.851113096086537</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.851113096086537</v>
+        <v>-0.786597091305083</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.786597091305083</v>
+        <v>-0.851113096086536</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.851113096086536</v>
+        <v>-0.00000363119088157326</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.00118517820060885</v>
+        <v>-0.000185304734948614</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.00000363119088157326</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0.000185304734948614</v>
-      </c>
-      <c r="Q12" t="n">
         <v>-0.0000232244916800623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>-0.521724823762677</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.00074978083446401</v>
+      </c>
+      <c r="D13" t="n">
         <v>-0.705204570941993</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.521724823762677</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.705204570941993</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.00074978083446401</v>
       </c>
       <c r="G13" t="n">
         <v>-0.000246386847975701</v>
@@ -1128,48 +1050,42 @@
         <v>-0.0000183542050041493</v>
       </c>
       <c r="J13" t="n">
+        <v>-0.705204570941994</v>
+      </c>
+      <c r="K13" t="n">
         <v>-0.521724823762677</v>
       </c>
-      <c r="K13" t="n">
-        <v>-0.705204570941994</v>
-      </c>
       <c r="L13" t="n">
-        <v>-0.521724823762677</v>
+        <v>-0.705204570941993</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.705204570941993</v>
+        <v>-0.00000286971283452497</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00074978083446401</v>
+        <v>-0.000117229576724014</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00000286971283452497</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.000117229576724014</v>
-      </c>
-      <c r="Q13" t="n">
         <v>-0.0000183542050041493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
         <v>-0.793891673248891</v>
       </c>
       <c r="C14" t="n">
+        <v>-0.00950693336296232</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.754980557784383</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.793891673248891</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-0.754980557784383</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.00950693336296232</v>
       </c>
       <c r="G14" t="n">
         <v>0.00199160516823554</v>
@@ -1181,48 +1097,42 @@
         <v>-0.000106851503204868</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.793891673248891</v>
+        <v>0.754980557784383</v>
       </c>
       <c r="K14" t="n">
-        <v>0.754980557784383</v>
+        <v>0.793891673248891</v>
       </c>
       <c r="L14" t="n">
-        <v>0.793891673248891</v>
+        <v>-0.754980557784383</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.754980557784383</v>
+        <v>0.00000508941627913641</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00950693336296232</v>
+        <v>0.000452822281118091</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00000508941627913641</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.000452822281118091</v>
-      </c>
-      <c r="Q14" t="n">
         <v>-0.000106851503204868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>0.757082729769264</v>
       </c>
       <c r="C15" t="n">
+        <v>0.00059980474591938</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.863774954038932</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.757082729769264</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.863774954038932</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.00059980474591938</v>
       </c>
       <c r="G15" t="n">
         <v>0.00016637065812529</v>
@@ -1234,48 +1144,42 @@
         <v>0.0000123935234002749</v>
       </c>
       <c r="J15" t="n">
-        <v>0.757082729769264</v>
+        <v>0.863774954038931</v>
       </c>
       <c r="K15" t="n">
-        <v>0.863774954038931</v>
+        <v>0.757082729769263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.757082729769263</v>
+        <v>0.863774954038932</v>
       </c>
       <c r="M15" t="n">
-        <v>0.863774954038932</v>
+        <v>0.0000146535853352618</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00059980474591938</v>
+        <v>0.000709184123429318</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0000146535853352618</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.000709184123429318</v>
-      </c>
-      <c r="Q15" t="n">
         <v>0.0000123935234002749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
         <v>-0.557459045373724</v>
       </c>
       <c r="C16" t="n">
+        <v>-0.000799226509082303</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.535998615636706</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.557459045373724</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.535998615636706</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.000799226509082303</v>
       </c>
       <c r="G16" t="n">
         <v>0.000399030594433079</v>
@@ -1287,48 +1191,42 @@
         <v>-0.0000139170826741448</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.557459045373724</v>
+        <v>0.535998615636706</v>
       </c>
       <c r="K16" t="n">
-        <v>0.535998615636706</v>
+        <v>0.557459045373726</v>
       </c>
       <c r="L16" t="n">
-        <v>0.557459045373726</v>
+        <v>-0.535998615636706</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.535998615636706</v>
+        <v>0.000000999581996628314</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.000799226509082303</v>
+        <v>0.0000574037280953252</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000000999581996628314</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0000574037280953252</v>
-      </c>
-      <c r="Q16" t="n">
         <v>-0.0000139170826741448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>0.594635188154063</v>
       </c>
       <c r="C17" t="n">
+        <v>0.0268204257469662</v>
+      </c>
+      <c r="D17" t="n">
         <v>-0.402628083495524</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.594635188154063</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.402628083495524</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0268204257469662</v>
       </c>
       <c r="G17" t="n">
         <v>-0.00772621418993106</v>
@@ -1340,48 +1238,42 @@
         <v>0.000328887033455264</v>
       </c>
       <c r="J17" t="n">
-        <v>0.594635188154063</v>
+        <v>-0.402628083495524</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.402628083495524</v>
+        <v>-0.594635188154062</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.594635188154062</v>
+        <v>0.402628083495524</v>
       </c>
       <c r="M17" t="n">
-        <v>0.402628083495524</v>
+        <v>-0.0000757404340888832</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0268204257469662</v>
+        <v>-0.00617656058733067</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0000757404340888832</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-0.00617656058733067</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.000328887033455264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>0.713533236149945</v>
       </c>
       <c r="C18" t="n">
+        <v>0.0372685163729708</v>
+      </c>
+      <c r="D18" t="n">
         <v>-0.769410302531576</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.713533236149945</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.769410302531577</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0372685163729708</v>
       </c>
       <c r="G18" t="n">
         <v>-0.00610626264893488</v>
@@ -1393,48 +1285,42 @@
         <v>0.000727802461136458</v>
       </c>
       <c r="J18" t="n">
-        <v>0.713533236149945</v>
+        <v>-0.769410302531578</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.769410302531578</v>
+        <v>-0.713533236149946</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.713533236149946</v>
+        <v>0.769410302531577</v>
       </c>
       <c r="M18" t="n">
-        <v>0.769410302531577</v>
+        <v>-0.000298707199033204</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0372685163729708</v>
+        <v>-0.0152958731693626</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.000298707199033204</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-0.0152958731693626</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.000727802461136458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
         <v>0.913986017281333</v>
       </c>
       <c r="C19" t="n">
+        <v>0.0995872123477592</v>
+      </c>
+      <c r="D19" t="n">
         <v>-0.797062118150063</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.913986017281333</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.797062118150063</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0995872123477592</v>
       </c>
       <c r="G19" t="n">
         <v>-0.0450963930037438</v>
@@ -1446,48 +1332,42 @@
         <v>0.00157283736759709</v>
       </c>
       <c r="J19" t="n">
-        <v>0.913986017281333</v>
+        <v>-0.797062118150063</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.797062118150063</v>
+        <v>-0.913986017281333</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.913986017281333</v>
+        <v>0.797062118150063</v>
       </c>
       <c r="M19" t="n">
-        <v>0.797062118150063</v>
+        <v>-0.00198679586695163</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0995872123477592</v>
+        <v>-0.125797788105736</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.00198679586695163</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-0.125797788105736</v>
-      </c>
-      <c r="Q19" t="n">
         <v>0.00157283736759709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
         <v>0.265268303719946</v>
       </c>
       <c r="C20" t="n">
+        <v>0.0109015410894385</v>
+      </c>
+      <c r="D20" t="n">
         <v>-0.122653889313527</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.265268303719946</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.122653889313527</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0109015410894385</v>
       </c>
       <c r="G20" t="n">
         <v>-0.00170150838560932</v>
@@ -1499,48 +1379,42 @@
         <v>0.0000912875361129525</v>
       </c>
       <c r="J20" t="n">
-        <v>0.265268303719946</v>
+        <v>-0.122653889313528</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.122653889313528</v>
+        <v>-0.265268303719946</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.265268303719946</v>
+        <v>0.122653889313527</v>
       </c>
       <c r="M20" t="n">
-        <v>0.122653889313527</v>
+        <v>-0.0000182203380303621</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0109015410894385</v>
+        <v>-0.0021758694796591</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.0000182203380303621</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-0.0021758694796591</v>
-      </c>
-      <c r="Q20" t="n">
         <v>0.0000912875361129525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>-0.969136159242639</v>
       </c>
       <c r="C21" t="n">
+        <v>-0.76506615697451</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.888277183617983</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.969136159242638</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.888277183617983</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.76506615697451</v>
       </c>
       <c r="G21" t="n">
         <v>0.00868413992426078</v>
@@ -1552,48 +1426,42 @@
         <v>-0.0132785014132427</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.969136159242639</v>
+        <v>0.888277183617988</v>
       </c>
       <c r="K21" t="n">
-        <v>0.888277183617988</v>
+        <v>0.96913615924264</v>
       </c>
       <c r="L21" t="n">
-        <v>0.96913615924264</v>
+        <v>-0.888277183617983</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.888277183617983</v>
+        <v>0.000660681137092118</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.76506615697451</v>
+        <v>0.0380664024357834</v>
       </c>
       <c r="O21" t="n">
-        <v>0.000660681137092118</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0380664024357834</v>
-      </c>
-      <c r="Q21" t="n">
         <v>-0.0132785014132427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>-0.997750022694171</v>
       </c>
       <c r="C22" t="n">
+        <v>-1.48248849115179</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.945118490582</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.997750022694171</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-0.945118490582</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.48248849115179</v>
       </c>
       <c r="G22" t="n">
         <v>0.367962241598596</v>
@@ -1605,41 +1473,35 @@
         <v>-0.0256670090400806</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.997750022694171</v>
+        <v>0.945118490582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.945118490582</v>
+        <v>0.997750022694171</v>
       </c>
       <c r="L22" t="n">
-        <v>0.997750022694171</v>
+        <v>-0.945118490582</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.945118490582</v>
+        <v>0.0292467952614317</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.48248849115179</v>
+        <v>1.68925165025808</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0292467952614317</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.68925165025808</v>
-      </c>
-      <c r="Q22" t="n">
         <v>-0.0256670090400806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23"/>
-      <c r="C23"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23"/>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -1652,31 +1514,27 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
+      <c r="M23" t="n">
+        <v>-0.000000000000000870556524494373</v>
+      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.0000000000000637682911622807</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.000000000000000870556524494373</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.0000000000000637682911622807</v>
-      </c>
-      <c r="Q23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24"/>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -1689,17 +1547,13 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
+      <c r="M24" t="n">
+        <v>0.000000000000501440558108759</v>
+      </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.0000000000367305357094737</v>
       </c>
       <c r="O24" t="n">
-        <v>0.000000000000501440558108759</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0000000000367305357094737</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/fourth_pass/welfare_results/3282/analysis_results/cor_and_elas_3282.xlsx
+++ b/fourth_pass/welfare_results/3282/analysis_results/cor_and_elas_3282.xlsx
@@ -1528,33 +1528,47 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>-0.99949039209519</v>
+      </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>-167966135.730231</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.95662930260746</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.999490392095189</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.95662930260746</v>
+      </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>123411.461836652</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>7054577.7006697</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+        <v>-2938368.1389679</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.956629302607457</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.999490392095189</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.95662930260746</v>
+      </c>
       <c r="M24" t="n">
-        <v>0.000000000000501440558108759</v>
+        <v>50.2489665458678</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0000000000367305357094737</v>
+        <v>2872.38505727593</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-2938368.1389679</v>
       </c>
     </row>
   </sheetData>
